--- a/data/outputs/OR_elsevier/58.xlsx
+++ b/data/outputs/OR_elsevier/58.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS262"/>
+  <dimension ref="A1:BU262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84909954125</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>16741</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84924589077</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>11918</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1369,6 +1391,12 @@
           <t>2-s2.0-84923121891</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>13047</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1584,6 +1612,12 @@
           <t>2-s2.0-84945131042</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>12182</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1797,6 +1831,12 @@
           <t>2-s2.0-84925067459</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>3654</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2016,6 +2056,12 @@
           <t>2-s2.0-84919326918</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>35623</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2217,6 +2263,12 @@
           <t>2-s2.0-84924567598</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>5682</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2432,6 +2484,12 @@
           <t>2-s2.0-84983177587</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>3523</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2649,6 +2707,12 @@
           <t>2-s2.0-84935008124</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>3685</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2872,6 +2936,12 @@
           <t>2-s2.0-84928317003</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2776</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3085,6 +3155,12 @@
           <t>2-s2.0-84928338932</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>5599</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3298,6 +3374,12 @@
           <t>2-s2.0-84938081994</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2683</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3509,6 +3591,12 @@
           <t>2-s2.0-84907484588</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>2433</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3730,6 +3818,12 @@
           <t>2-s2.0-84934765912</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1759</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3952,6 +4046,12 @@
         <is>
           <t>2-s2.0-84908248483</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>1314</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -4154,6 +4254,12 @@
           <t>2-s2.0-84928341313</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2627</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4367,6 +4473,12 @@
           <t>2-s2.0-84923856215</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>3764</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4589,6 +4701,12 @@
         <is>
           <t>2-s2.0-84912110253</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>4076</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -4795,6 +4913,12 @@
           <t>2-s2.0-84938125094</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1626</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5010,6 +5134,12 @@
           <t>2-s2.0-84938561240</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2169</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5223,6 +5353,12 @@
           <t>2-s2.0-84937041749</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3559</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5436,6 +5572,12 @@
           <t>2-s2.0-84922675344</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>3209</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5647,6 +5789,12 @@
           <t>2-s2.0-84936742153</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>4006</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5874,6 +6022,12 @@
           <t>2-s2.0-84925435019</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>10507</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6095,6 +6249,12 @@
           <t>2-s2.0-84923912751</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1826</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6314,6 +6474,12 @@
           <t>2-s2.0-84922376693</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1730</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6527,6 +6693,12 @@
           <t>2-s2.0-84918543025</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>4118</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6740,6 +6912,12 @@
           <t>2-s2.0-84922495854</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>3684</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6955,6 +7133,12 @@
           <t>2-s2.0-84916898080</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>34013</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7160,6 +7344,12 @@
           <t>2-s2.0-84930209031</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>2196</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7383,6 +7573,12 @@
           <t>2-s2.0-84918576929</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2779</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7605,6 +7801,12 @@
         <is>
           <t>2-s2.0-84912081428</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>3828</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -7821,6 +8023,12 @@
           <t>2-s2.0-84908577504</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>3664</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8028,6 +8236,12 @@
           <t>2-s2.0-84907821795</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>8320</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8233,6 +8447,12 @@
           <t>2-s2.0-84936762497</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1660</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8454,6 +8674,12 @@
           <t>2-s2.0-84937157053</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>2466</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8659,6 +8885,12 @@
           <t>2-s2.0-84924662935</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1765</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8866,6 +9098,12 @@
           <t>2-s2.0-84922619160</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2619</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9079,6 +9317,12 @@
           <t>2-s2.0-84916895100</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2152</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9303,6 +9547,12 @@
         <is>
           <t>2-s2.0-84912070757</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>3668</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -9509,6 +9759,12 @@
           <t>2-s2.0-84926460378</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>3458</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9722,6 +9978,12 @@
           <t>2-s2.0-84916898099</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>4206</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9943,6 +10205,12 @@
           <t>2-s2.0-84918523629</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>3391</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10163,6 +10431,12 @@
         <is>
           <t>2-s2.0-84910017113</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>3158</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -10381,6 +10655,12 @@
           <t>2-s2.0-84930939003</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2524</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10590,6 +10870,12 @@
           <t>2-s2.0-84907495002</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>3751</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10807,6 +11093,12 @@
           <t>2-s2.0-84940101880</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2841</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11035,6 +11327,12 @@
         <is>
           <t>2-s2.0-84918537393</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>6486</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -11253,6 +11551,12 @@
           <t>2-s2.0-84937034773</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>6675</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11468,6 +11772,12 @@
           <t>2-s2.0-84934267606</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>2809</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11677,6 +11987,12 @@
           <t>2-s2.0-84924585662</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1391</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11890,6 +12206,12 @@
           <t>2-s2.0-84938792004</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>2142</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12103,6 +12425,12 @@
           <t>2-s2.0-84926059709</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>2727</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12318,6 +12646,12 @@
           <t>2-s2.0-84925424181</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2361</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12539,6 +12873,12 @@
           <t>2-s2.0-84912099680</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1589</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12770,6 +13110,12 @@
           <t>2-s2.0-84912136911</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>7011</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12992,6 +13338,12 @@
         <is>
           <t>2-s2.0-84918514189</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>4954</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="59">
@@ -13206,6 +13558,12 @@
           <t>2-s2.0-84928745119</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1968</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13423,6 +13781,12 @@
           <t>2-s2.0-84928328930</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1700</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13648,6 +14012,12 @@
           <t>2-s2.0-84926444021</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>5198</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13867,6 +14237,12 @@
           <t>2-s2.0-84918822917</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>21799</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14082,6 +14458,12 @@
           <t>2-s2.0-84921934674</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>3661</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14304,6 +14686,12 @@
         <is>
           <t>2-s2.0-84912112941</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>2783</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -14526,6 +14914,12 @@
           <t>2-s2.0-84930680762</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>2126</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14739,6 +15133,12 @@
           <t>2-s2.0-84936859210</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>4772</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14952,6 +15352,12 @@
           <t>2-s2.0-84936859158</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>3108</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15175,6 +15581,12 @@
           <t>2-s2.0-84916639067</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>3842</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15396,6 +15808,12 @@
           <t>2-s2.0-84921867279</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>8399</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15609,6 +16027,12 @@
           <t>2-s2.0-84907494126</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>4136</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15832,6 +16256,12 @@
           <t>2-s2.0-84937231836</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1893</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16057,6 +16487,12 @@
           <t>2-s2.0-84939499730</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>3728</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16270,6 +16706,12 @@
           <t>2-s2.0-84930207849</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>2602</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16475,6 +16917,12 @@
           <t>2-s2.0-84928344110</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>1414</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16680,6 +17128,12 @@
           <t>2-s2.0-84925769275</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>1886</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16885,6 +17339,12 @@
           <t>2-s2.0-84910024644</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>2093</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17108,6 +17568,12 @@
           <t>2-s2.0-84934921449</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>3832</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17323,6 +17789,12 @@
           <t>2-s2.0-84924709687</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>734</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17528,6 +18000,12 @@
           <t>2-s2.0-84922363445</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1512</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17741,6 +18219,12 @@
           <t>2-s2.0-84916931558</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>2780</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17954,6 +18438,12 @@
           <t>2-s2.0-84913535191</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>2473</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18167,6 +18657,12 @@
           <t>2-s2.0-84909959899</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>2264</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18384,6 +18880,12 @@
           <t>2-s2.0-84938572475</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>2538</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18607,6 +19109,12 @@
           <t>2-s2.0-84936864721</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>7827</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18820,6 +19328,12 @@
           <t>2-s2.0-84920915395</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>2089</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19033,6 +19547,12 @@
           <t>2-s2.0-84907483709</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>2036</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19248,6 +19768,12 @@
           <t>2-s2.0-84918583073</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>4781</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19463,6 +19989,12 @@
           <t>2-s2.0-84910005319</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1699</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19687,6 +20219,12 @@
         <is>
           <t>2-s2.0-84918541606</t>
         </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>2053</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -19901,6 +20439,12 @@
           <t>2-s2.0-84939210025</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>3142</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20106,6 +20650,12 @@
           <t>2-s2.0-84939624061</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>2047</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20318,6 +20868,12 @@
         <is>
           <t>2-s2.0-84932635767</t>
         </is>
+      </c>
+      <c r="BT92" t="n">
+        <v>1430</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -20522,6 +21078,12 @@
           <t>2-s2.0-84926472446</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>5353</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20739,6 +21301,12 @@
           <t>2-s2.0-84924985667</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>1126</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20952,6 +21520,12 @@
           <t>2-s2.0-84907486416</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1501</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21173,6 +21747,12 @@
           <t>2-s2.0-84908345957</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1798</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21386,6 +21966,12 @@
           <t>2-s2.0-84918545801</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>3430</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21603,6 +22189,12 @@
           <t>2-s2.0-84939804802</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1802</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21810,6 +22402,12 @@
           <t>2-s2.0-84939618834</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>2621</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22029,6 +22627,12 @@
           <t>2-s2.0-84938699355</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>2631</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22248,6 +22852,12 @@
           <t>2-s2.0-84930645974</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>4399</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22453,6 +23063,12 @@
           <t>2-s2.0-84920973432</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>4247</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22666,6 +23282,12 @@
           <t>2-s2.0-84916895122</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>4167</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22871,6 +23493,12 @@
           <t>2-s2.0-84907494994</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>1882</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23096,6 +23724,12 @@
           <t>2-s2.0-84907487354</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>1977</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23309,6 +23943,12 @@
           <t>2-s2.0-84910028908</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>3974</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23520,6 +24160,12 @@
           <t>2-s2.0-84909999269</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>2640</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23746,6 +24392,12 @@
         <is>
           <t>2-s2.0-84912102771</t>
         </is>
+      </c>
+      <c r="BT108" t="n">
+        <v>6129</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -23956,6 +24608,12 @@
           <t>2-s2.0-84935002899</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1574</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24161,6 +24819,12 @@
           <t>2-s2.0-84937035055</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>1496</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24378,6 +25042,12 @@
           <t>2-s2.0-84936880339</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>7609</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24591,6 +25261,12 @@
           <t>2-s2.0-84927653693</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>2361</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24804,6 +25480,12 @@
           <t>2-s2.0-84922660505</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>3786</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25025,6 +25707,12 @@
           <t>2-s2.0-84907541370</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>1926</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25230,6 +25918,12 @@
           <t>2-s2.0-84907501265</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>1951</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25443,6 +26137,12 @@
           <t>2-s2.0-84906518716</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>1322</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25662,6 +26362,12 @@
           <t>2-s2.0-84939441553</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>3093</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25877,6 +26583,12 @@
           <t>2-s2.0-84939479681</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>2945</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26086,6 +26798,12 @@
           <t>2-s2.0-84926050106</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>2093</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26309,6 +27027,12 @@
           <t>2-s2.0-84922436722</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>2866</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26524,6 +27248,12 @@
           <t>2-s2.0-84920731355</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>2635</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26737,6 +27467,12 @@
           <t>2-s2.0-84920152106</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>1540</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26954,6 +27690,12 @@
           <t>2-s2.0-84911887943</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>1684</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27179,6 +27921,12 @@
           <t>2-s2.0-84908587287</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>1925</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27390,6 +28138,12 @@
           <t>2-s2.0-84907546203</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>4823</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27595,6 +28349,12 @@
           <t>2-s2.0-84934287335</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27816,6 +28576,12 @@
           <t>2-s2.0-84930675954</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>2988</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28031,6 +28797,12 @@
           <t>2-s2.0-84934282285</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>5433</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28244,6 +29016,12 @@
           <t>2-s2.0-84938538837</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>1094</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28453,6 +29231,12 @@
           <t>2-s2.0-84928565839</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>1887</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28666,6 +29450,12 @@
           <t>2-s2.0-84927725131</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>1081</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28877,6 +29667,12 @@
           <t>2-s2.0-84926476814</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>1347</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29078,6 +29874,12 @@
           <t>2-s2.0-84925134608</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>1534</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29287,6 +30089,12 @@
           <t>2-s2.0-84923017871</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>1470</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29500,6 +30308,12 @@
           <t>2-s2.0-84921373830</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>1848</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29717,6 +30531,12 @@
           <t>2-s2.0-84911933466</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>2705</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29922,6 +30742,12 @@
           <t>2-s2.0-84916911941</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>5296</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30127,6 +30953,12 @@
           <t>2-s2.0-84917670353</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>3453</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30332,6 +31164,12 @@
           <t>2-s2.0-84907483715</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30545,6 +31383,12 @@
       <c r="BQ140" t="inlineStr"/>
       <c r="BR140" t="inlineStr"/>
       <c r="BS140" t="inlineStr"/>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30762,6 +31606,12 @@
           <t>2-s2.0-84907481818</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>3654</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30979,6 +31829,12 @@
           <t>2-s2.0-84910005210</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>1778</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31201,6 +32057,12 @@
         <is>
           <t>2-s2.0-84912109228</t>
         </is>
+      </c>
+      <c r="BT143" t="n">
+        <v>2191</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -31415,6 +32277,12 @@
           <t>2-s2.0-84939438735</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>1804</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31620,6 +32488,12 @@
           <t>2-s2.0-84939612977</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>1223</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31837,6 +32711,12 @@
           <t>2-s2.0-84939815109</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>1483</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32050,6 +32930,12 @@
           <t>2-s2.0-84939560603</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>959</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32263,6 +33149,12 @@
           <t>2-s2.0-84939437411</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>852</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32474,6 +33366,12 @@
           <t>2-s2.0-84938589964</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>1331</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32679,6 +33577,12 @@
           <t>2-s2.0-84931265796</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>1377</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32884,6 +33788,12 @@
           <t>2-s2.0-84931281844</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>1685</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33097,6 +34007,12 @@
           <t>2-s2.0-84934267809</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>8309</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33306,6 +34222,12 @@
       <c r="BQ153" t="inlineStr"/>
       <c r="BR153" t="inlineStr"/>
       <c r="BS153" t="inlineStr"/>
+      <c r="BT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33517,6 +34439,12 @@
           <t>2-s2.0-84923276494</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>2327</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33724,6 +34652,12 @@
           <t>2-s2.0-84920935053</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>2246</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33947,6 +34881,12 @@
           <t>2-s2.0-84918819691</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>2357</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34160,6 +35100,12 @@
           <t>2-s2.0-84921529893</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>1005</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34369,6 +35315,12 @@
           <t>2-s2.0-84910679031</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>2495</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34578,6 +35530,12 @@
           <t>2-s2.0-84949124848</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>2879</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34785,6 +35743,12 @@
           <t>2-s2.0-84907506474</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>6246</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35005,6 +35969,12 @@
         <is>
           <t>2-s2.0-84918516378</t>
         </is>
+      </c>
+      <c r="BT161" t="n">
+        <v>2950</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -35217,6 +36187,12 @@
           <t>2-s2.0-84939782271</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>1513</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35430,6 +36406,12 @@
           <t>2-s2.0-84939551133</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>1157</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35643,6 +36625,12 @@
           <t>2-s2.0-84937155745</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>1218</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35855,6 +36843,12 @@
         <is>
           <t>2-s2.0-84935912095</t>
         </is>
+      </c>
+      <c r="BT165" t="n">
+        <v>4810</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="166">
@@ -36057,6 +37051,12 @@
           <t>2-s2.0-84930648295</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>1317</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36262,6 +37262,12 @@
           <t>2-s2.0-84930682691</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>1556</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36481,6 +37487,12 @@
           <t>2-s2.0-84928532866</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>1269</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36700,6 +37712,12 @@
           <t>2-s2.0-84928719160</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>2258</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36909,6 +37927,12 @@
           <t>2-s2.0-84926506942</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>697</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37132,6 +38156,12 @@
           <t>2-s2.0-84925130145</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>868</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37355,6 +38385,12 @@
           <t>2-s2.0-84924962809</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>3347</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37572,6 +38608,12 @@
           <t>2-s2.0-84924620526</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37784,6 +38826,12 @@
         <is>
           <t>2-s2.0-84923336452</t>
         </is>
+      </c>
+      <c r="BT174" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="175">
@@ -37986,6 +39034,12 @@
           <t>2-s2.0-84910000328</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>4482</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38203,6 +39257,12 @@
           <t>2-s2.0-84907487355</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>4999</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38416,6 +39476,12 @@
           <t>2-s2.0-84939198086</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>1263</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38631,6 +39697,12 @@
           <t>2-s2.0-84937053763</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>2046</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -38854,6 +39926,12 @@
           <t>2-s2.0-84935006960</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>2472</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39061,6 +40139,12 @@
           <t>2-s2.0-84934765456</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>2200</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39266,6 +40350,12 @@
           <t>2-s2.0-84925341464</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>2656</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39479,6 +40569,12 @@
           <t>2-s2.0-84925354589</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>1795</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39684,6 +40780,12 @@
           <t>2-s2.0-84924700131</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>1408</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -39901,6 +41003,12 @@
           <t>2-s2.0-84925365855</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>1440</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -40124,6 +41232,12 @@
           <t>2-s2.0-84924659763</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>1279</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -40345,6 +41459,12 @@
           <t>2-s2.0-84921869184</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>890</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40552,6 +41672,12 @@
           <t>2-s2.0-84914129111</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>3933</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -40773,6 +41899,12 @@
           <t>2-s2.0-84912002440</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>2890</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -40992,6 +42124,12 @@
           <t>2-s2.0-84930652870</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>1405</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41213,6 +42351,12 @@
           <t>2-s2.0-84908255359</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>2725</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41441,6 +42585,12 @@
         <is>
           <t>2-s2.0-84912144723</t>
         </is>
+      </c>
+      <c r="BT191" t="n">
+        <v>1154</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="192">
@@ -41655,6 +42805,12 @@
           <t>2-s2.0-84918561827</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>1417</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -41868,6 +43024,12 @@
           <t>2-s2.0-84937702177</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>1077</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42085,6 +43247,12 @@
           <t>2-s2.0-84937684106</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>3375</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42290,6 +43458,12 @@
           <t>2-s2.0-84939483312</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42505,6 +43679,12 @@
           <t>2-s2.0-84931268227</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42726,6 +43906,12 @@
           <t>2-s2.0-84926394921</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>1740</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -42935,6 +44121,12 @@
           <t>2-s2.0-84927517442</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>1793</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -43151,6 +44343,12 @@
         <is>
           <t>2-s2.0-84926361865</t>
         </is>
+      </c>
+      <c r="BT199" t="n">
+        <v>1716</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -43349,6 +44547,12 @@
           <t>2-s2.0-84926444034</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>1707</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -43566,6 +44770,12 @@
           <t>2-s2.0-84926450593</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>6053</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -43775,6 +44985,12 @@
           <t>2-s2.0-84923922548</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>1304</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -43990,6 +45206,12 @@
           <t>2-s2.0-84923123059</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>3629</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -44207,6 +45429,12 @@
           <t>2-s2.0-84922744568</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>3294</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44412,6 +45640,12 @@
           <t>2-s2.0-84918798403</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>1460</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44627,6 +45861,12 @@
           <t>2-s2.0-84908225193</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>2316</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -44844,6 +46084,12 @@
           <t>2-s2.0-84910011254</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>1299</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -45049,6 +46295,12 @@
           <t>2-s2.0-84930629459</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>1136</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45271,6 +46523,12 @@
         <is>
           <t>2-s2.0-84912105188</t>
         </is>
+      </c>
+      <c r="BT209" t="n">
+        <v>2267</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="210">
@@ -45481,6 +46739,12 @@
           <t>2-s2.0-84938860518</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>2570</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -45696,6 +46960,12 @@
           <t>2-s2.0-84939814034</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>1557</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -45901,6 +47171,12 @@
           <t>2-s2.0-84939191017</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>1065</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -46112,6 +47388,12 @@
           <t>2-s2.0-84962644633</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>1240</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -46333,6 +47615,12 @@
           <t>2-s2.0-84928259455</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>821</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -46550,6 +47838,12 @@
           <t>2-s2.0-84928323318</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>796</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -46759,6 +48053,12 @@
           <t>2-s2.0-84918831354</t>
         </is>
       </c>
+      <c r="BT216" t="n">
+        <v>4122</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -46966,6 +48266,12 @@
           <t>2-s2.0-84913582683</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>1448</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -47181,6 +48487,12 @@
           <t>2-s2.0-84912056809</t>
         </is>
       </c>
+      <c r="BT218" t="n">
+        <v>2202</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -47403,6 +48715,12 @@
         <is>
           <t>2-s2.0-84910004095</t>
         </is>
+      </c>
+      <c r="BT219" t="n">
+        <v>1734</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="220">
@@ -47619,6 +48937,12 @@
           <t>2-s2.0-84912071808</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>934</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -47840,6 +49164,12 @@
           <t>2-s2.0-84938250610</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>2114</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -48059,6 +49389,12 @@
           <t>2-s2.0-84938501374</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>1014</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -48280,6 +49616,12 @@
           <t>2-s2.0-84928554477</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>1178</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -48495,6 +49837,12 @@
           <t>2-s2.0-84928530472</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>881</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -48700,6 +50048,12 @@
           <t>2-s2.0-84936863119</t>
         </is>
       </c>
+      <c r="BT225" t="n">
+        <v>1804</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -48923,6 +50277,12 @@
           <t>2-s2.0-84938505532</t>
         </is>
       </c>
+      <c r="BT226" t="n">
+        <v>915</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -49128,6 +50488,12 @@
           <t>2-s2.0-84925967699</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>1312</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -49341,6 +50707,12 @@
           <t>2-s2.0-84922354043</t>
         </is>
       </c>
+      <c r="BT228" t="n">
+        <v>1391</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -49550,6 +50922,12 @@
           <t>2-s2.0-84921526410</t>
         </is>
       </c>
+      <c r="BT229" t="n">
+        <v>997</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -49767,6 +51145,12 @@
           <t>2-s2.0-84920904141</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>3442</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -49980,6 +51364,12 @@
           <t>2-s2.0-84917741709</t>
         </is>
       </c>
+      <c r="BT231" t="n">
+        <v>1100</v>
+      </c>
+      <c r="BU231" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -50189,6 +51579,12 @@
           <t>2-s2.0-84911192238</t>
         </is>
       </c>
+      <c r="BT232" t="n">
+        <v>899</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -50394,6 +51790,12 @@
           <t>2-s2.0-84909989715</t>
         </is>
       </c>
+      <c r="BT233" t="n">
+        <v>1769</v>
+      </c>
+      <c r="BU233" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -50611,6 +52013,12 @@
           <t>2-s2.0-84910003785</t>
         </is>
       </c>
+      <c r="BT234" t="n">
+        <v>919</v>
+      </c>
+      <c r="BU234" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -50831,6 +52239,12 @@
         <is>
           <t>2-s2.0-84910013213</t>
         </is>
+      </c>
+      <c r="BT235" t="n">
+        <v>892</v>
+      </c>
+      <c r="BU235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -51056,6 +52470,12 @@
         <is>
           <t>2-s2.0-84939791473</t>
         </is>
+      </c>
+      <c r="BT236" t="n">
+        <v>1683</v>
+      </c>
+      <c r="BU236" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -51258,6 +52678,12 @@
           <t>2-s2.0-84936851492</t>
         </is>
       </c>
+      <c r="BT237" t="n">
+        <v>968</v>
+      </c>
+      <c r="BU237" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -51471,6 +52897,12 @@
           <t>2-s2.0-84936889670</t>
         </is>
       </c>
+      <c r="BT238" t="n">
+        <v>719</v>
+      </c>
+      <c r="BU238" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -51676,6 +53108,12 @@
           <t>2-s2.0-84938526081</t>
         </is>
       </c>
+      <c r="BT239" t="n">
+        <v>759</v>
+      </c>
+      <c r="BU239" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -51895,6 +53333,12 @@
           <t>2-s2.0-84961328110</t>
         </is>
       </c>
+      <c r="BT240" t="n">
+        <v>777</v>
+      </c>
+      <c r="BU240" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -52108,6 +53552,12 @@
           <t>2-s2.0-84927517959</t>
         </is>
       </c>
+      <c r="BT241" t="n">
+        <v>2269</v>
+      </c>
+      <c r="BU241" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -52321,6 +53771,12 @@
           <t>2-s2.0-84924130233</t>
         </is>
       </c>
+      <c r="BT242" t="n">
+        <v>1251</v>
+      </c>
+      <c r="BU242" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -52536,6 +53992,12 @@
           <t>2-s2.0-84925428453</t>
         </is>
       </c>
+      <c r="BT243" t="n">
+        <v>1537</v>
+      </c>
+      <c r="BU243" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -52745,6 +54207,12 @@
           <t>2-s2.0-84911925281</t>
         </is>
       </c>
+      <c r="BT244" t="n">
+        <v>1104</v>
+      </c>
+      <c r="BU244" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -52962,6 +54430,12 @@
           <t>2-s2.0-84907484585</t>
         </is>
       </c>
+      <c r="BT245" t="n">
+        <v>1327</v>
+      </c>
+      <c r="BU245" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -53171,6 +54645,12 @@
           <t>2-s2.0-84906842552</t>
         </is>
       </c>
+      <c r="BT246" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -53380,6 +54860,12 @@
           <t>2-s2.0-84907483707</t>
         </is>
       </c>
+      <c r="BT247" t="n">
+        <v>1628</v>
+      </c>
+      <c r="BU247" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -53585,6 +55071,12 @@
           <t>2-s2.0-84908574325</t>
         </is>
       </c>
+      <c r="BT248" t="n">
+        <v>1263</v>
+      </c>
+      <c r="BU248" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -53794,6 +55286,12 @@
           <t>2-s2.0-84939780454</t>
         </is>
       </c>
+      <c r="BT249" t="n">
+        <v>809</v>
+      </c>
+      <c r="BU249" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -54015,6 +55513,12 @@
           <t>2-s2.0-84931271740</t>
         </is>
       </c>
+      <c r="BT250" t="n">
+        <v>737</v>
+      </c>
+      <c r="BU250" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -54236,6 +55740,12 @@
           <t>2-s2.0-84936881943</t>
         </is>
       </c>
+      <c r="BT251" t="n">
+        <v>1580</v>
+      </c>
+      <c r="BU251" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -54457,6 +55967,12 @@
           <t>2-s2.0-84925446647</t>
         </is>
       </c>
+      <c r="BT252" t="n">
+        <v>877</v>
+      </c>
+      <c r="BU252" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -54662,6 +56178,12 @@
           <t>2-s2.0-84918797132</t>
         </is>
       </c>
+      <c r="BT253" t="n">
+        <v>826</v>
+      </c>
+      <c r="BU253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -54871,6 +56393,12 @@
           <t>2-s2.0-84921872037</t>
         </is>
       </c>
+      <c r="BT254" t="n">
+        <v>1134</v>
+      </c>
+      <c r="BU254" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -55080,6 +56608,12 @@
           <t>2-s2.0-84936861502</t>
         </is>
       </c>
+      <c r="BT255" t="n">
+        <v>1215</v>
+      </c>
+      <c r="BU255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -55303,6 +56837,12 @@
           <t>2-s2.0-84928710997</t>
         </is>
       </c>
+      <c r="BT256" t="n">
+        <v>3269</v>
+      </c>
+      <c r="BU256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -55516,6 +57056,12 @@
           <t>2-s2.0-84924121541</t>
         </is>
       </c>
+      <c r="BT257" t="n">
+        <v>689</v>
+      </c>
+      <c r="BU257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -55731,6 +57277,12 @@
           <t>2-s2.0-84922642831</t>
         </is>
       </c>
+      <c r="BT258" t="n">
+        <v>646</v>
+      </c>
+      <c r="BU258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -55940,6 +57492,12 @@
           <t>2-s2.0-84920936299</t>
         </is>
       </c>
+      <c r="BT259" t="n">
+        <v>1001</v>
+      </c>
+      <c r="BU259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -56152,6 +57710,12 @@
         <is>
           <t>2-s2.0-84918568746</t>
         </is>
+      </c>
+      <c r="BT260" t="n">
+        <v>973</v>
+      </c>
+      <c r="BU260" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -56354,6 +57918,12 @@
           <t>2-s2.0-84918537010</t>
         </is>
       </c>
+      <c r="BT261" t="n">
+        <v>855</v>
+      </c>
+      <c r="BU261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -56551,6 +58121,12 @@
           <t>2-s2.0-84909619758</t>
         </is>
       </c>
+      <c r="BT262" t="n">
+        <v>294</v>
+      </c>
+      <c r="BU262" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
